--- a/Archetypes/transport_archetypes.xlsx
+++ b/Archetypes/transport_archetypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964EE37E-01DF-4D6B-B833-E47CE8D3DA57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08D0784-69EF-4BE3-B069-84DA5102D793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>inactive</t>
+  </si>
+  <si>
+    <t>SoC_mu</t>
+  </si>
+  <si>
+    <t>SoC_sigma</t>
+  </si>
+  <si>
+    <t>SoC_min</t>
+  </si>
+  <si>
+    <t>SoC_max</t>
   </si>
 </sst>
 </file>
@@ -158,7 +170,62 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -445,98 +512,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.77734375" customWidth="1"/>
+    <col min="21" max="22" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -553,320 +635,414 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>25</v>
       </c>
-      <c r="D3" s="1">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3" s="1">
         <v>120</v>
       </c>
-      <c r="F3" s="1">
+      <c r="I3" s="1">
         <v>20</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3" s="1">
         <v>360</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <v>20</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>18</v>
+      <c r="M3" s="1">
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1">
+        <v>60</v>
+      </c>
+      <c r="S3" s="1">
+        <v>100</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1">
         <v>25</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4" s="1">
         <v>120</v>
       </c>
-      <c r="F4" s="1">
+      <c r="I4" s="1">
         <v>20</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>360</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4" s="1">
         <v>20</v>
       </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>40</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5" s="1">
         <v>650</v>
       </c>
-      <c r="F5" s="1">
+      <c r="I5" s="1">
         <v>50</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>180</v>
       </c>
-      <c r="L5" s="1">
+      <c r="O5" s="1">
         <v>20</v>
       </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>170</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1">
+        <v>160</v>
+      </c>
+      <c r="K6" s="1">
         <v>25</v>
       </c>
-      <c r="C6" s="1">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
-        <v>170</v>
-      </c>
-      <c r="F6" s="1">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1">
-        <v>160</v>
-      </c>
-      <c r="H6" s="1">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
+      <c r="R6" s="1">
+        <v>60</v>
+      </c>
+      <c r="S6" s="1">
+        <v>100</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>40</v>
       </c>
-      <c r="D7" s="1">
+      <c r="G7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7" s="1">
         <v>180</v>
       </c>
-      <c r="F7" s="1">
+      <c r="I7" s="1">
         <v>35</v>
       </c>
-      <c r="G7" s="1">
+      <c r="J7" s="1">
         <v>165</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="1">
         <v>30</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7" s="1">
         <v>70</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7" s="1">
         <v>15</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>10</v>
+      </c>
+      <c r="R7" s="1">
+        <v>60</v>
+      </c>
+      <c r="S7" s="1">
+        <v>100</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>20</v>
       </c>
-      <c r="D8" s="1">
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="H8" s="1">
         <v>100</v>
       </c>
-      <c r="F8" s="1">
+      <c r="I8" s="1">
         <v>15</v>
       </c>
-      <c r="G8" s="1">
+      <c r="J8" s="1">
         <v>90</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8" s="1">
         <v>10</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>10</v>
+      </c>
+      <c r="R8" s="1">
+        <v>60</v>
+      </c>
+      <c r="S8" s="1">
+        <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="1">
+      <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
@@ -882,22 +1058,35 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:O1048576">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Archetypes/transport_archetypes.xlsx
+++ b/Archetypes/transport_archetypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08D0784-69EF-4BE3-B069-84DA5102D793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369316F6-62E5-4692-964D-2D2B040443B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>SoC_max</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>private</t>
   </si>
 </sst>
 </file>
@@ -170,71 +179,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,116 +461,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="6" customWidth="1"/>
-    <col min="4" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.77734375" customWidth="1"/>
-    <col min="21" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.77734375" customWidth="1"/>
+    <col min="22" max="23" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -644,56 +596,59 @@
       <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
       </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>120</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>20</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>360</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>20</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
@@ -704,51 +659,54 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>80</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>10</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>60</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>100</v>
       </c>
-      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>25</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>120</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>20</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
@@ -759,14 +717,14 @@
         <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
         <v>360</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>20</v>
       </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
       <c r="Q4" s="1">
         <v>0</v>
       </c>
@@ -776,40 +734,43 @@
       <c r="S4" s="1">
         <v>0</v>
       </c>
-      <c r="U4" s="1"/>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
       <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <v>40</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>10</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>650</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>50</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
@@ -820,14 +781,14 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
         <v>180</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>20</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
@@ -837,46 +798,49 @@
       <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="U5" s="1"/>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
       <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>40</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>170</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>30</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>160</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>25</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
@@ -887,118 +851,124 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
         <v>80</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>10</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>60</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>100</v>
       </c>
-      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>180</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>35</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>165</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>30</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>70</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>15</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
         <v>80</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>10</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>60</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>100</v>
       </c>
-      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>20</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>100</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>15</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>90</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>10</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
@@ -1009,43 +979,46 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <v>80</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>10</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>60</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>20</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
@@ -1077,6 +1050,9 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
         <v>0</v>
       </c>
     </row>
